--- a/покупки/order_27.09.24.xlsx
+++ b/покупки/order_27.09.24.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t xml:space="preserve">Order Max Uzkikh 15.04.2024</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t xml:space="preserve">Order Max Uzkikh 27.09.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Max Uzkikh 09.12.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i3200 print head</t>
   </si>
 </sst>
 </file>
@@ -377,10 +383,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -558,6 +564,146 @@
         <v>1789</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <f aca="false">B14*C14</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <f aca="false">B15*C15</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <f aca="false">B16*C16</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">B17*C17</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">B18*C18</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">B19*C19</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">B20*C20</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">B21*C21</f>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="1" t="n">
+        <f aca="false">SUM(D14:D21)</f>
+        <v>2363</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
